--- a/Society/CustomerApp/Docs/TestCase.xlsx
+++ b/Society/CustomerApp/Docs/TestCase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Society\CustomerApp\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\github\group_micro_fin_client\Society\CustomerApp\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" tabRatio="811" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" tabRatio="811" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -293,12 +293,6 @@
     <t>close_dt</t>
   </si>
   <si>
-    <t>ln_int_paid</t>
-  </si>
-  <si>
-    <t>ln_princ_paid</t>
-  </si>
-  <si>
     <t>meeting_date</t>
   </si>
   <si>
@@ -312,6 +306,24 @@
   </si>
   <si>
     <t>last_meeting_date</t>
+  </si>
+  <si>
+    <t>txn_code</t>
+  </si>
+  <si>
+    <t>txn_Amount</t>
+  </si>
+  <si>
+    <t>LN_DISBUS</t>
+  </si>
+  <si>
+    <t>INT_CHRG</t>
+  </si>
+  <si>
+    <t>INST_PAID</t>
+  </si>
+  <si>
+    <t>LN_CLOSED</t>
   </si>
 </sst>
 </file>
@@ -980,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.7">
@@ -1015,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.7">
@@ -1050,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.7">
@@ -1144,7 +1156,7 @@
         <v>53</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -1287,7 +1299,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.7"/>
@@ -1538,17 +1550,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1557,74 +1571,205 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C2">
-        <v>10</v>
+      <c r="C2" t="s">
+        <v>86</v>
       </c>
       <c r="D2">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="11">
-        <v>43069</v>
+        <v>43039</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="C3">
-        <v>7.1</v>
+      <c r="C3" t="s">
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>292.89999999999998</v>
+        <v>10</v>
       </c>
       <c r="E3" s="11">
-        <v>43100</v>
+        <v>43069</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
       <c r="E4" s="11">
-        <v>42766</v>
+        <v>43069</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5">
+        <v>3.7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>7.1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>3.7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6" s="11">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>3.7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="A8">
         <v>3.9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E8" s="11">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>3.9</v>
+      </c>
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="11">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>3.9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>421.27</v>
+      </c>
+      <c r="E10" s="11">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>3.9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>3.9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>278.72899999999998</v>
+      </c>
+      <c r="E12" s="11">
         <v>42766</v>
       </c>
     </row>
@@ -1927,7 +2072,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.7"/>
